--- a/Distribution_Efficiency.xlsx
+++ b/Distribution_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>84.26125543848386</v>
+        <v>85.19315728638345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>84.521362019797</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Distribution_Efficiency.xlsx
+++ b/Distribution_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>84.26125543848386</v>
+        <v>85.19315728638345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>83.42512248313072</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Distribution_Efficiency.xlsx
+++ b/Distribution_Efficiency.xlsx
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>83.42512248313072</v>
+        <v>84.52987265805524</v>
       </c>
     </row>
     <row r="7" spans="1:3">
